--- a/COD R12 Cloud ERP Automation/src/test/resources/TestArtifacts/COD R12 Cloud ERP Master Driver File.xlsx
+++ b/COD R12 Cloud ERP Automation/src/test/resources/TestArtifacts/COD R12 Cloud ERP Master Driver File.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="686" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="686" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Groups" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="67">
   <si>
     <t>Groups</t>
   </si>
@@ -216,10 +216,7 @@
     <t>Create Purchase Order</t>
   </si>
   <si>
-    <t>P2P</t>
-  </si>
-  <si>
-    <t>P2P Process</t>
+    <t>To run P2P cycle make these scripts run columns status to "Y"</t>
   </si>
 </sst>
 </file>
@@ -308,7 +305,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -342,6 +339,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -686,7 +686,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,15 +719,9 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>2</v>
-      </c>
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -737,10 +731,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,9 +787,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>31</v>
@@ -804,19 +798,19 @@
         <v>23</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>7</v>
@@ -828,7 +822,7 @@
     </row>
     <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>31</v>
@@ -837,22 +831,22 @@
         <v>23</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>36</v>
@@ -861,7 +855,7 @@
     </row>
     <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>31</v>
@@ -876,13 +870,13 @@
         <v>40</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>7</v>
@@ -894,7 +888,7 @@
     </row>
     <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>31</v>
@@ -903,32 +897,200 @@
         <v>23</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>36</v>
       </c>
       <c r="K5" s="10"/>
     </row>
+    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7" s="10"/>
+    </row>
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="10"/>
+    </row>
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="10"/>
+    </row>
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K10" s="10"/>
+    </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J5">
-      <formula1>$E$83:$E$86</formula1>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J7">
+      <formula1>$E$84:$E$87</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3 J8:J10">
+      <formula1>$E$87:$E$90</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -938,229 +1100,133 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="7" width="44.28515625" customWidth="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="9" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>64</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="I1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="B2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="E2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F2" s="13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="D3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="E3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="B4" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="D4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="10"/>
-    </row>
-    <row r="5" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="B5" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="D5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="I5" s="11" t="s">
+      <c r="E5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K5" s="10"/>
-    </row>
-    <row r="6" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="D6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="E6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6" s="10"/>
+      <c r="F6" s="13"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J6">
-      <formula1>$E$88:$E$91</formula1>
-    </dataValidation>
-  </dataValidations>
+  <mergeCells count="1">
+    <mergeCell ref="F2:F6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/COD R12 Cloud ERP Automation/src/test/resources/TestArtifacts/COD R12 Cloud ERP Master Driver File.xlsx
+++ b/COD R12 Cloud ERP Automation/src/test/resources/TestArtifacts/COD R12 Cloud ERP Master Driver File.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{ED91E562-F1DE-4CEE-9E66-CBA0852591E8}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="686" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="686" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Groups" sheetId="1" r:id="rId1"/>
@@ -222,7 +223,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -346,8 +347,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -682,7 +683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -730,11 +731,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="43" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,7 +814,7 @@
         <v>35</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>36</v>
@@ -846,7 +847,7 @@
         <v>39</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>36</v>
@@ -1011,7 +1012,7 @@
         <v>56</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>36</v>
@@ -1086,10 +1087,10 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J4:J7" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>$E$84:$E$87</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3 J8:J10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3 J8:J10" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>$E$87:$E$90</formula1>
     </dataValidation>
   </dataValidations>
@@ -1099,7 +1100,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
